--- a/data/trans_orig/P14C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{968A8580-5EA2-4B74-8684-6949D84861B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{412C3D6C-4894-4E94-8369-AB4EFABD5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{043F0A3D-4D03-48A0-9AD2-E8DA9FAD12FF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C63F7167-9346-4F03-A22B-E75EF8394580}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="163">
   <si>
     <t>Población según el tiempo de diagnóstico de la diabetes en 2015 (Tasa respuesta: 8,36%)</t>
   </si>
@@ -131,55 +131,55 @@
     <t>79,48%</t>
   </si>
   <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
   </si>
   <si>
     <t>86,33%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
   </si>
   <si>
     <t>5,09%</t>
@@ -188,13 +188,13 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>13,93%</t>
+    <t>13,63%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>14,2%</t>
+    <t>12,1%</t>
   </si>
   <si>
     <t>3,9%</t>
@@ -203,7 +203,7 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>9,54%</t>
+    <t>9,44%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -212,73 +212,76 @@
     <t>75,32%</t>
   </si>
   <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>76,48%</t>
   </si>
   <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>7,28%</t>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
   </si>
   <si>
     <t>6,54%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -287,79 +290,79 @@
     <t>77,79%</t>
   </si>
   <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>75,28%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
   </si>
   <si>
     <t>20,56%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>9,44%</t>
+    <t>10,35%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -368,148 +371,157 @@
     <t>75,52%</t>
   </si>
   <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>87,05%</t>
   </si>
   <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>32,75%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>8,11%</t>
+    <t>8,1%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>11,28%</t>
+    <t>9,63%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>77,46%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>74,92%</t>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>78,87%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>8,98%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B923FD-B146-4A67-93DC-B26B7CFED01A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5C4F53-EA91-4CC5-9699-0DB4A48698AB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1517,7 +1529,7 @@
         <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -1526,13 +1538,13 @@
         <v>17962</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -1541,13 +1553,13 @@
         <v>29982</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1562,13 +1574,13 @@
         <v>9124</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1583,7 +1595,7 @@
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1592,13 +1604,13 @@
         <v>11171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,7 +1666,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1666,13 +1678,13 @@
         <v>56878</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -1681,13 +1693,13 @@
         <v>48946</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -1696,13 +1708,13 @@
         <v>105824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,13 +1729,13 @@
         <v>14036</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -1732,13 +1744,13 @@
         <v>13870</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>25</v>
@@ -1747,13 +1759,13 @@
         <v>27905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,13 +1780,13 @@
         <v>2208</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
@@ -1783,13 +1795,13 @@
         <v>4632</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -1798,13 +1810,13 @@
         <v>6840</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,7 +1872,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1872,13 +1884,13 @@
         <v>52782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -1887,13 +1899,13 @@
         <v>75679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -1902,13 +1914,13 @@
         <v>128461</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1923,13 +1935,13 @@
         <v>15250</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -1938,13 +1950,13 @@
         <v>8889</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -1953,13 +1965,13 @@
         <v>24139</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1974,13 +1986,13 @@
         <v>1856</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -1989,13 +2001,13 @@
         <v>2372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -2004,13 +2016,13 @@
         <v>4228</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,13 +2090,13 @@
         <v>227594</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
         <v>204</v>
@@ -2093,13 +2105,13 @@
         <v>236760</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>433</v>
@@ -2108,13 +2120,13 @@
         <v>464354</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2141,13 @@
         <v>50119</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -2144,13 +2156,13 @@
         <v>48008</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -2159,13 +2171,13 @@
         <v>98127</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2192,13 @@
         <v>16096</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -2195,13 +2207,13 @@
         <v>10160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -2210,13 +2222,13 @@
         <v>26256</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,7 +2284,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C02-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{412C3D6C-4894-4E94-8369-AB4EFABD5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F12352-9422-482B-9EF4-726FBE477936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C63F7167-9346-4F03-A22B-E75EF8394580}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{32EE882D-7AD4-4356-86CB-4A6ACCF31468}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="163">
   <si>
-    <t>Población según el tiempo de diagnóstico de la diabetes en 2015 (Tasa respuesta: 8,36%)</t>
+    <t>Población según el tiempo de diagnóstico de la diabetes en 2016 (Tasa respuesta: 8,36%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -89,7 +89,7 @@
     <t>87,94%</t>
   </si>
   <si>
-    <t>52,13%</t>
+    <t>52,48%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,7 +113,7 @@
     <t>12,06%</t>
   </si>
   <si>
-    <t>47,87%</t>
+    <t>47,52%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,403 +125,403 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>79,48%</t>
   </si>
   <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>86,33%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>7,76%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>21,18%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
     <t>16,67%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -936,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5C4F53-EA91-4CC5-9699-0DB4A48698AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298F15DB-953E-42E9-AD67-9F7B1E3D3B25}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
